--- a/lab03/report/lab03_benchmark_results.xlsx
+++ b/lab03/report/lab03_benchmark_results.xlsx
@@ -20,17 +20,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t xml:space="preserve">BENCHMARK RESULTS</t>
   </si>
   <si>
-    <t xml:space="preserve">name, surname :</t>
+    <t xml:space="preserve">name, surname :PIERRICK MULLER</t>
   </si>
   <si>
     <t xml:space="preserve">time [ms] (on 1000000 elem)</t>
   </si>
   <si>
+    <t xml:space="preserve">Changer en 100000 afin de faciliter le Benchmark</t>
+  </si>
+  <si>
     <t xml:space="preserve">tools</t>
   </si>
   <si>
@@ -46,6 +49,9 @@
     <t xml:space="preserve">strace -tt</t>
   </si>
   <si>
+    <t xml:space="preserve">6515,1</t>
+  </si>
+  <si>
     <t xml:space="preserve">gprof</t>
   </si>
   <si>
@@ -53,6 +59,9 @@
   </si>
   <si>
     <t xml:space="preserve">iteration count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sur 100000 éléments aussi , lancé 10 fois</t>
   </si>
   <si>
     <t xml:space="preserve">slowest</t>
@@ -77,7 +86,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -131,6 +140,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -265,7 +280,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -275,13 +290,17 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -310,7 +329,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -338,11 +357,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -356,12 +375,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -431,21 +450,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:I1048576"/>
+  <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+      <selection pane="topLeft" activeCell="K26" activeCellId="0" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="12.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="71.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -475,8 +497,8 @@
       <c r="I2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -486,118 +508,178 @@
       <c r="I3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="0" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
+      <c r="C5" s="8" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="10" t="n">
+        <v>6491</v>
+      </c>
+      <c r="C6" s="11" t="n">
+        <v>75810</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="13" t="n">
+        <v>75301</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="14" t="n">
+        <v>6470</v>
+      </c>
+      <c r="C8" s="15" t="n">
+        <v>71760</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5"/>
+      <c r="B11" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4"/>
-      <c r="B11" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="7" t="s">
+      <c r="D12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>5</v>
+      <c r="I12" s="8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="21"/>
-    </row>
+      <c r="A13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="19" t="n">
+        <v>6508125396</v>
+      </c>
+      <c r="C13" s="20" t="n">
+        <v>106066466803</v>
+      </c>
+      <c r="D13" s="20" t="n">
+        <v>2862191813</v>
+      </c>
+      <c r="E13" s="21" t="n">
+        <v>45167744005</v>
+      </c>
+      <c r="F13" s="21" t="n">
+        <v>4219061959</v>
+      </c>
+      <c r="G13" s="21" t="n">
+        <v>82592349120</v>
+      </c>
+      <c r="H13" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="8">
